--- a/Employee_Reports28/Justine Tiangson Clave Q0590.xlsx
+++ b/Employee_Reports28/Justine Tiangson Clave Q0590.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,7 +68,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -565,11 +562,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -614,11 +611,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -663,11 +660,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -712,11 +709,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -761,11 +758,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -810,11 +807,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -859,11 +856,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -908,11 +905,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -957,11 +954,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1006,11 +1003,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1055,11 +1052,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1104,11 +1101,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1153,11 +1150,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1200,11 +1197,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1248,11 +1245,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1285,11 +1282,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1332,11 +1329,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1379,11 +1376,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1426,11 +1423,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1463,11 +1460,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1503,7 +1500,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1563,7 +1560,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1588,7 +1585,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1613,7 +1610,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -1638,7 +1635,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -1663,7 +1660,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -1688,7 +1685,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
